--- a/2023_weekday_providers.xlsx
+++ b/2023_weekday_providers.xlsx
@@ -1,401 +1,394 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m296398\Desktop\no_show_stats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F0B609-13DE-4856-8296-D89340AC4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1680" windowWidth="14505" windowHeight="18930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
-  <si>
-    <t>UniqueValues.appt.schdlng.prvdr</t>
-  </si>
-  <si>
-    <t>UniqueValues.appt.schdlng.prvdr.spclty</t>
-  </si>
-  <si>
-    <t>PIHMA_CLINIC</t>
-  </si>
-  <si>
-    <t>Acupuncture/Herbal Medicine</t>
-  </si>
-  <si>
-    <t>ALLERGY_IMMUNOLOGY</t>
-  </si>
-  <si>
-    <t>Allergy/Immunology</t>
-  </si>
-  <si>
-    <t>LIPSCHULTZ_A</t>
-  </si>
-  <si>
-    <t>Cardiology</t>
-  </si>
-  <si>
-    <t>PERRY_T</t>
-  </si>
-  <si>
-    <t>GIANCOLA_J</t>
-  </si>
-  <si>
-    <t>Dermatology</t>
-  </si>
-  <si>
-    <t>~Ultrasound</t>
-  </si>
-  <si>
-    <t>Diagnostic Radiology</t>
-  </si>
-  <si>
-    <t>Del_E_Webb_XRAY</t>
-  </si>
-  <si>
-    <t>BEZZANT_S</t>
-  </si>
-  <si>
-    <t>ALSAYED_M</t>
-  </si>
-  <si>
-    <t>Endocrinology</t>
-  </si>
-  <si>
-    <t>MAYO_STUDENTS</t>
-  </si>
-  <si>
-    <t>Family Medicine</t>
-  </si>
-  <si>
-    <t>DOUGLAS_X</t>
-  </si>
-  <si>
-    <t>MIRANDA_S</t>
-  </si>
-  <si>
-    <t>RUTT_P</t>
-  </si>
-  <si>
-    <t>OSSOWSKI_E</t>
-  </si>
-  <si>
-    <t>YOUNGER_TINA</t>
-  </si>
-  <si>
-    <t>VIRGIL_D</t>
-  </si>
-  <si>
-    <t>BIJU_M</t>
-  </si>
-  <si>
-    <t>VANCE_T</t>
-  </si>
-  <si>
-    <t>JOHNSON-ANTES_E</t>
-  </si>
-  <si>
-    <t>MORGAN_M</t>
-  </si>
-  <si>
-    <t>Gastroenterology</t>
-  </si>
-  <si>
-    <t>CREIGHTON_GI</t>
-  </si>
-  <si>
-    <t>FRIESE_W</t>
-  </si>
-  <si>
-    <t>General Surgery</t>
-  </si>
-  <si>
-    <t>~WOMENS_HEALTH</t>
-  </si>
-  <si>
-    <t>Gynecology</t>
-  </si>
-  <si>
-    <t>GYNECOLOGY</t>
-  </si>
-  <si>
-    <t>METAS_E</t>
-  </si>
-  <si>
-    <t>AGUILAR_CARRIE</t>
-  </si>
-  <si>
-    <t>MORAN_A</t>
-  </si>
-  <si>
-    <t>Infectious Disease</t>
-  </si>
-  <si>
-    <t>HAZIN_M</t>
-  </si>
-  <si>
-    <t>Internal Medicine</t>
-  </si>
-  <si>
-    <t>CHACKO_A</t>
-  </si>
-  <si>
-    <t>ANWAR_J</t>
-  </si>
-  <si>
-    <t>POLES_J</t>
-  </si>
-  <si>
-    <t>BINDELGLAS_E</t>
-  </si>
-  <si>
-    <t>CREIGHTON_PCP2</t>
-  </si>
-  <si>
-    <t>CREIGHTON_PCP</t>
-  </si>
-  <si>
-    <t>KARNANI_R</t>
-  </si>
-  <si>
-    <t>ROBERTS_D</t>
-  </si>
-  <si>
-    <t>Hospital_Follow-Up</t>
-  </si>
-  <si>
-    <t>KAIF_R</t>
-  </si>
-  <si>
-    <t>BAYLESS_P</t>
-  </si>
-  <si>
-    <t>MESBAH_Z</t>
-  </si>
-  <si>
-    <t>LEIS_B</t>
-  </si>
-  <si>
-    <t>STAMAN_M</t>
-  </si>
-  <si>
-    <t>JAIN_S</t>
-  </si>
-  <si>
-    <t>ERICKSON_E</t>
-  </si>
-  <si>
-    <t>~LAB</t>
-  </si>
-  <si>
-    <t>Laboratory Medicine/Diagnostics</t>
-  </si>
-  <si>
-    <t>~TB</t>
-  </si>
-  <si>
-    <t>~VACCINE</t>
-  </si>
-  <si>
-    <t>EMG</t>
-  </si>
-  <si>
-    <t>ECHO</t>
-  </si>
-  <si>
-    <t>HOLTER</t>
-  </si>
-  <si>
-    <t>NIMRI_A</t>
-  </si>
-  <si>
-    <t>Nephrology</t>
-  </si>
-  <si>
-    <t>HEILMAN_R</t>
-  </si>
-  <si>
-    <t>QAQISH_I</t>
-  </si>
-  <si>
-    <t>BARROW_NEURO</t>
-  </si>
-  <si>
-    <t>Neurology</t>
-  </si>
-  <si>
-    <t>HOOKER_E</t>
-  </si>
-  <si>
-    <t>Nutrition</t>
-  </si>
-  <si>
-    <t>OCCUPATIONAL_THERAPY</t>
-  </si>
-  <si>
-    <t>Occupational Therapy</t>
-  </si>
-  <si>
-    <t>RETINAL_SCAN</t>
-  </si>
-  <si>
-    <t>Ophthalmology/Optometry</t>
-  </si>
-  <si>
-    <t>CONWAY_MANDI</t>
-  </si>
-  <si>
-    <t>UNDERDAHL_J</t>
-  </si>
-  <si>
-    <t>KOLENDA_KEVIN</t>
-  </si>
-  <si>
-    <t>SHIPLEY-SLICK_S</t>
-  </si>
-  <si>
-    <t>VILLAREAL_A</t>
-  </si>
-  <si>
-    <t>VISUAL_FIELD</t>
-  </si>
-  <si>
-    <t>CHURGIN_D</t>
-  </si>
-  <si>
-    <t>HALL_R</t>
-  </si>
-  <si>
-    <t>Orthopedic Surgery</t>
-  </si>
-  <si>
-    <t>DINOWITZ_M</t>
-  </si>
-  <si>
-    <t>KASSMAN_S</t>
-  </si>
-  <si>
-    <t>HEADLEY_D</t>
-  </si>
-  <si>
-    <t>Otolaryngology/Audiology</t>
-  </si>
-  <si>
-    <t>HEILAND_K</t>
-  </si>
-  <si>
-    <t>CREIGHTON_PEDS</t>
-  </si>
-  <si>
-    <t>Pediatric Medicine</t>
-  </si>
-  <si>
-    <t>BESTE_SARA</t>
-  </si>
-  <si>
-    <t>MURPHY_P</t>
-  </si>
-  <si>
-    <t>EDE_K</t>
-  </si>
-  <si>
-    <t>Pediatric Rheumatology</t>
-  </si>
-  <si>
-    <t>CREIGHTON_PT</t>
-  </si>
-  <si>
-    <t>Physical Therapy</t>
-  </si>
-  <si>
-    <t>GOODMAN_JESSICA</t>
-  </si>
-  <si>
-    <t>ARYA_S</t>
-  </si>
-  <si>
-    <t>Podiatry</t>
-  </si>
-  <si>
-    <t>JORDAN_H</t>
-  </si>
-  <si>
-    <t>PSYCH</t>
-  </si>
-  <si>
-    <t>Psychiatry/Psychology</t>
-  </si>
-  <si>
-    <t>BEECHLER_C</t>
-  </si>
-  <si>
-    <t>Pulmonary Medicine</t>
-  </si>
-  <si>
-    <t>ARJUNA-A</t>
-  </si>
-  <si>
-    <t>CPAP_CLINIC</t>
-  </si>
-  <si>
-    <t>GRADO_G</t>
-  </si>
-  <si>
-    <t>Radiation Oncology</t>
-  </si>
-  <si>
-    <t>PETERS_E</t>
-  </si>
-  <si>
-    <t>Rheumatology</t>
-  </si>
-  <si>
-    <t>BENNETT_RALPH</t>
-  </si>
-  <si>
-    <t>Breger_J</t>
-  </si>
-  <si>
-    <t>Speech Language Pathology</t>
-  </si>
-  <si>
-    <t>WILSON_K</t>
-  </si>
-  <si>
-    <t>THOMAS_W</t>
-  </si>
-  <si>
-    <t>Vascular Surgery</t>
-  </si>
-  <si>
-    <t>~WOUND</t>
-  </si>
-  <si>
-    <t>Wound Care</t>
-  </si>
-  <si>
-    <t>RINNE_H</t>
-  </si>
-  <si>
-    <t>THARALSON_E</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+  <si>
+    <t xml:space="preserve">UniqueValues.appt.schdlng.prvdr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueValues.appt.schdlng.prvdr.spclty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIHMA_CLINIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acupuncture/Herbal Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLERGY_IMMUNOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergy/Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIPSCHULTZ_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERRY_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIANCOLA_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Ultrasound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnostic Radiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del_E_Webb_XRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEZZANT_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALSAYED_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endocrinology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYO_STUDENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUGLAS_X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRANDA_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUTT_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSSOWSKI_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOUNGER_TINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRGIL_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIJU_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANCE_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHNSON-ANTES_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORGAN_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastroenterology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREIGHTON_GI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIESE_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~WOMENS_HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gynecology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYNECOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METAS_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILAR_CARRIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORAN_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infectious Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAZIN_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHACKO_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANWAR_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLES_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINDELGLAS_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREIGHTON_PCP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREIGHTON_PCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARNANI_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERTS_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital_Follow-Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAIF_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAYLESS_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESBAH_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEIS_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAMAN_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAIN_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERICKSON_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~LAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratory Medicine/Diagnostics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~VACCINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIMRI_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nephrology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEILMAN_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAQISH_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARROW_NEURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOOKER_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCCUPATIONAL_THERAPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupational Therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETINAL_SCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmology/Optometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONWAY_MANDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNDERDAHL_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOLENDA_KEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIPLEY-SLICK_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLAREAL_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISUAL_FIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHURGIN_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALL_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthopedic Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINOWITZ_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KASSMAN_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADLEY_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otolaryngology/Audiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEILAND_K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREIGHTON_PEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pediatric Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESTE_SARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MURPHY_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDE_K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pediatric Rheumatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREIGHTON_PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOODMAN_JESSICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARYA_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORDAN_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSYCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatry/Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEECHLER_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulmonary Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARJUNA-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAP_CLINIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRADO_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETERS_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheumatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENNETT_RALPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breger_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech Language Pathology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILSON_K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOMAS_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascular Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~WOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wound Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RINNE_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THARALSON_E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -412,7 +405,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -420,49 +413,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -744,44 +705,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -789,23 +744,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -813,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -821,31 +776,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -853,7 +808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -861,7 +816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -869,7 +824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -877,7 +832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -885,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -893,7 +848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -901,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -909,15 +864,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -925,23 +880,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -949,7 +904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -957,7 +912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -965,23 +920,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -989,7 +944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -997,7 +952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1005,7 +960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1013,7 +968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1021,7 +976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1029,7 +984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1037,7 +992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1045,7 +1000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1053,7 +1008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1061,7 +1016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1069,7 +1024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1077,7 +1032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1085,7 +1040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1093,7 +1048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -1101,7 +1056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1109,15 +1064,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45">
+      <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1125,7 +1080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -1133,7 +1088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -1141,7 +1096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -1149,7 +1104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -1157,15 +1112,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51">
+      <c r="A51" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -1173,7 +1128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -1181,7 +1136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -1189,31 +1144,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55">
+      <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56">
+      <c r="A56" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57">
+      <c r="A57" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -1221,7 +1176,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -1229,7 +1184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -1237,7 +1192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -1245,7 +1200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -1253,7 +1208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -1261,7 +1216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -1269,15 +1224,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65">
+      <c r="A65" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -1285,7 +1240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -1293,15 +1248,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68">
+      <c r="A68" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -1309,15 +1264,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70">
+      <c r="A70" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -1325,7 +1280,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -1333,23 +1288,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="73">
+      <c r="A73" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74">
+      <c r="A74" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -1357,15 +1312,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="76">
+      <c r="A76" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -1373,23 +1328,23 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="78">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79">
+      <c r="A79" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -1397,7 +1352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -1405,23 +1360,23 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="82">
+      <c r="A82" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="83">
+      <c r="A83" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -1429,15 +1384,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="85">
+      <c r="A85" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -1445,23 +1400,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="87">
+      <c r="A87" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="88">
+      <c r="A88" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -1469,15 +1424,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>122</v>
       </c>
@@ -1487,12 +1442,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{11372f5f-8e19-4efb-8afe-8eac20a980c4}" enabled="1" method="Standard" siteId="{a25fff9c-3f63-4fb2-9a8a-d9bdd0321f9a}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>